--- a/biology/Zoologie/Cochleosaurus/Cochleosaurus.xlsx
+++ b/biology/Zoologie/Cochleosaurus/Cochleosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cochleosaurus bohemicus, Cochleosaurus florensis
 Cochleosaurus est un genre fossile de tétrapodes temnospondyles, connu via les espèces fossiles Cochleosaurus bohemicus découverte en nombre en République tchèque et Cochleosaurus florensis. Il a vécu à la fin du Carbonifère, au Moscovien, il y a environ 310 millions d'années de cela.
@@ -512,12 +524,49 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Cochleosaurus et l'espèce Cochleosaurus bohemicusest sont décrits par l'ethnographe tchécoslovaque Alberto Vojtěch Frič (1882-1944) en 1885[1],[2],[3].
-L'espèce Cochleosaurus florensis est décrite par O. Rieppel en 1980[4],[5].
-Cladogramme Edopoidea
-Ci-dessous, un cladogramme des Temnospondyli montrant les relations des Edopoidea de Christian A. Sidor (en) et al. (2006)[6] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cochleosaurus et l'espèce Cochleosaurus bohemicusest sont décrits par l'ethnographe tchécoslovaque Alberto Vojtěch Frič (1882-1944) en 1885.
+L'espèce Cochleosaurus florensis est décrite par O. Rieppel en 1980,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cochleosaurus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cochleosaurus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cladogramme Edopoidea</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ci-dessous, un cladogramme des Temnospondyli montrant les relations des Edopoidea de Christian A. Sidor (en) et al. (2006) :
 </t>
         </is>
       </c>
